--- a/ASP/publishing/publishing/wwwroot/Reports/employee_cost_bookings_result.xlsx
+++ b/ASP/publishing/publishing/wwwroot/Reports/employee_cost_bookings_result.xlsx
@@ -25,15 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Доходы от заказов</t>
   </si>
   <si>
-    <t>с 10.04.2023</t>
-  </si>
-  <si>
-    <t>по 06.05.2023</t>
+    <t>с 03.04.2023</t>
+  </si>
+  <si>
+    <t>по 16.05.2023</t>
   </si>
   <si>
     <t>№</t>
@@ -51,18 +51,24 @@
     <t>Доход</t>
   </si>
   <si>
+    <t>03.04.2023</t>
+  </si>
+  <si>
+    <t>09.04.2023</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0 ₽</t>
+  </si>
+  <si>
     <t>10.04.2023</t>
   </si>
   <si>
     <t>16.04.2023</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0 ₽</t>
-  </si>
-  <si>
     <t>17.04.2023</t>
   </si>
   <si>
@@ -84,13 +90,25 @@
     <t>01.05.2023</t>
   </si>
   <si>
-    <t>06.05.2023</t>
+    <t>07.05.2023</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>601,97 ₽</t>
+  </si>
+  <si>
+    <t>08.05.2023</t>
+  </si>
+  <si>
+    <t>14.05.2023</t>
+  </si>
+  <si>
+    <t>15.05.2023</t>
+  </si>
+  <si>
+    <t>16.05.2023</t>
   </si>
 </sst>
 </file>
@@ -429,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -517,10 +535,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -528,16 +546,67 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
